--- a/pcitc-stp/src/main/resources/static/budget/budget_stocksplit_zgs_template.xlsx
+++ b/pcitc-stp/src/main/resources/static/budget/budget_stocksplit_zgs_template.xlsx
@@ -28,11 +28,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表4   ${nd}年股份支付集团、外系统及盈科经费预算表</t>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合计</t>
+    <t>表4   ${nd}年股份付分子公司经费预算表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,21 +422,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="17" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="14" width="25.625" style="1" customWidth="1"/>
+    <col min="15" max="17" width="12.625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -591,7 +591,7 @@
     </row>
     <row r="22" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
